--- a/biology/Botanique/Square_Paul-Gilot/Square_Paul-Gilot.xlsx
+++ b/biology/Botanique/Square_Paul-Gilot/Square_Paul-Gilot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Paul-Gilot est un square du 15e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se situe rue de la Convention en face de l'ancien site parisien de l’Imprimerie nationale, actuellement siège de l'Inspection générale des affaires étrangères. Il y a également un accès par la rue Sébastien-Mercier.
 Le site est accessible par le 38 bis, rue de la Convention.
@@ -545,9 +559,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été légué à la ville par la mère de Paul Gilot (1888-1938), ingénieur de la Compagnie des glaces et verres spéciaux de France, dont le square porte actuellement le nom[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été légué à la ville par la mère de Paul Gilot (1888-1938), ingénieur de la Compagnie des glaces et verres spéciaux de France, dont le square porte actuellement le nom.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square a été créé en 1926. 
 Reconnaissable à son kiosque en forme de pagode entouré de bambous, ce square transporte le voyageur dans un voyage imaginaire où les plantes de terre de bruyère côtoient des marronniers, des tilleuls et des érables.
